--- a/biology/Histoire de la zoologie et de la botanique/Desmond_Morris/Desmond_Morris.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Desmond_Morris/Desmond_Morris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Desmond John Morris, né le 24 janvier 1928 au Royaume-Uni près de Swindon, Wiltshire, est un zoologiste vulgarisateur, un écrivain et un peintre surréaliste anglais.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1951 il entre au département de zoologie de l'Université d'Oxford avec le groupe de Nikolaas Tinbergen pour étudier le comportement animal dans le cadre de sa thèse. En 1954, il devient docteur en philosophie pour ses travaux de recherches sur le comportement reproductif du poisson épinoche[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1951 il entre au département de zoologie de l'Université d'Oxford avec le groupe de Nikolaas Tinbergen pour étudier le comportement animal dans le cadre de sa thèse. En 1954, il devient docteur en philosophie pour ses travaux de recherches sur le comportement reproductif du poisson épinoche.
 Il poursuit ses travaux sur le comportement reproductif des animaux, cette fois-ci sur les oiseaux, avant d'étudier l'habileté des grands singes à peindre et dessiner. En 1957, Penrose cofondateur de l'Institute of Contemporary Arts (Londres) invite Morris à exposer les peintures réalisées par son chimpanzé Congo.
 Il devient présentateur de l'émission Zoo Time (Granada TV) dans les années 1960. Également producteur de show télé et auteur de livres de zoologie, il reste un précurseur en matière d'éthologie humaine (voire de la sociobiologie humaine), notamment à travers l'ouvrage Le Singe nu, best-seller mondial vendu à plus de dix millions d'exemplaires.
 </t>
@@ -546,18 +560,26 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Livres parus en français
-Éthologie &amp; sociobiologie
-1967 : Le Singe nu[2] (The Naked Ape). Rééditions : 1971  (ISBN 978-2253003052) et 1988  (ISBN 2-246-40891-1) ;
+          <t>Livres parus en français</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Éthologie &amp; sociobiologie</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1967 : Le Singe nu (The Naked Ape). Rééditions : 1971  (ISBN 978-2253003052) et 1988  (ISBN 2-246-40891-1) ;
 1967 : Hommes et singes (Men and Apes). Réédition en 1971 ;
 1970 : Le Zoo humain (The Human Zoo) (ASIN B0067ZIXNI). Réédition en 1971 et 1973 ;
 1972 : Le Couple nu : zoologie du comportement intime de l'homme (Intimate behaviour). Réédition en 1974  (ISBN 2-253-00183-X) ;
 1977 : La Clé des gestes (Manwatching)  (ISBN 2246006414) ;
-1978 : L'Éthologie des Primates (Primate ethology), publié à Bruxelles  (ISBN 2-87027-029-1)[3] ;
+1978 : L'Éthologie des Primates (Primate ethology), publié à Bruxelles  (ISBN 2-87027-029-1) ;
 1980 : La Fête zoologique (Animal days)  (ISBN 2-7021-0367-7) ;
 1986 : Magie du corps  (ISBN 2-246-33361-X) ;
 1987 : Le Chien révélé (Dogwatching)  (ISBN 2-7021-1608-6). Rééditions : 1988, 1997  (ISBN 2702126324) ;
-1987 : Le Chat révélé : Guide essentiel du comportement de votre chat [4] (Catwatching)  (ISBN 2-7021-1609-4). Réédition en 1988  (ISBN 2253046582) ;
+1987 : Le Chat révélé : Guide essentiel du comportement de votre chat  (Catwatching)  (ISBN 2-7021-1609-4). Réédition en 1988  (ISBN 2253046582) ;
 1988 : Parlons chat ! (Catlore)  (ISBN 2702117082). Réédition en 1989  (ISBN 2266030345) ;
 1989 : Le Cheval révélé (Horsewatching)  (ISBN 2-7021-1769-4). Rééditions : 1990  (ISBN 2-7382-0324-8), 1998 :  (ISBN 2702128157),  (ISBN 2702116094),  (ISBN 273820094X),  (ISBN 2702125085) ;
 1990 : Les Animaux révélés (Animal watching)  (ISBN 2-7021-1907-7) ;
@@ -666,7 +688,9 @@
           <t>Expositions comme peintre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">2004 : Galerie du Maire, Cork Str., Londres
 2005 : Sydney, Australie
@@ -699,7 +723,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bibliothèque nationale de France</t>
         </is>
